--- a/BaoCao/2.Thiết kế hệ thống/TaiLieuThietKeChiTiet/Message.xlsx
+++ b/BaoCao/2.Thiết kế hệ thống/TaiLieuThietKeChiTiet/Message.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\MTT\KTLTHDT\BaoCao\2.Thiết kế hệ thống\TaiLieuThietKeChiTiet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\GitHub\shoes-store\BaoCao\2.Thiết kế hệ thống\TaiLieuThietKeChiTiet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851F7A85-DC8E-445F-A42E-C3745C1767B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB69F662-D2E5-49E4-9414-A427555831ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,18 +39,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>VALIDATION_USERNAME_E001</t>
-  </si>
-  <si>
-    <t>VALIDATION_PASSWORD_E001</t>
-  </si>
-  <si>
-    <t>VALIDATION_USERNAME_E002</t>
-  </si>
-  <si>
-    <t>VALIDATION_PASSWORD_E002</t>
-  </si>
-  <si>
     <t>Vui lòng nhập email</t>
   </si>
   <si>
@@ -63,16 +51,28 @@
     <t>Mật khẩu tối thiểu 6 kí tự có chứ chữ hoa, chữ thường và kí tự số</t>
   </si>
   <si>
-    <t>LOGIN_SUCCESS</t>
-  </si>
-  <si>
-    <t>LOGIN_E001</t>
-  </si>
-  <si>
     <t>Đăng nhập thành công</t>
   </si>
   <si>
     <t>Đăng nhập thất bại</t>
+  </si>
+  <si>
+    <t>ERR_USERNAME_E001</t>
+  </si>
+  <si>
+    <t>ERR_USERNAME_E002</t>
+  </si>
+  <si>
+    <t>ERR_PASSWORD_E001</t>
+  </si>
+  <si>
+    <t>ERR_PASSWORD_E002</t>
+  </si>
+  <si>
+    <t>MSG_LOGIN_SUCCESS</t>
+  </si>
+  <si>
+    <t>MSG_LOGIN_E001</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -559,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -571,10 +571,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -583,10 +583,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -595,10 +595,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -607,10 +607,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -619,10 +619,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6"/>
     </row>

--- a/BaoCao/2.Thiết kế hệ thống/TaiLieuThietKeChiTiet/Message.xlsx
+++ b/BaoCao/2.Thiết kế hệ thống/TaiLieuThietKeChiTiet/Message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\GitHub\shoes-store\BaoCao\2.Thiết kế hệ thống\TaiLieuThietKeChiTiet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB69F662-D2E5-49E4-9414-A427555831ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB40D36-F0D7-47A4-BBE3-70CCB22E751B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>No</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>MSG_LOGIN_E001</t>
+  </si>
+  <si>
+    <t>ERR_SIZE_E001</t>
+  </si>
+  <si>
+    <t>ERR_QUAN_E001</t>
+  </si>
+  <si>
+    <t>ERR_QUAN_E002</t>
+  </si>
+  <si>
+    <t>Size không hợp lệ</t>
+  </si>
+  <si>
+    <t>Số lượng không hợp lệ</t>
+  </si>
+  <si>
+    <t>Tồn kho không đủ</t>
   </si>
 </sst>
 </file>
@@ -529,7 +547,7 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -630,24 +648,36 @@
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5">

--- a/BaoCao/2.Thiết kế hệ thống/TaiLieuThietKeChiTiet/Message.xlsx
+++ b/BaoCao/2.Thiết kế hệ thống/TaiLieuThietKeChiTiet/Message.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\GitHub\shoes-store\BaoCao\2.Thiết kế hệ thống\TaiLieuThietKeChiTiet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB40D36-F0D7-47A4-BBE3-70CCB22E751B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5268E4E8-6F85-4E22-9F91-17B236D648AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>No</t>
   </si>
@@ -39,24 +39,9 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Vui lòng nhập email</t>
-  </si>
-  <si>
-    <t>Email không đúng định dạng</t>
-  </si>
-  <si>
-    <t>Vui lòng nhập mật khẩu</t>
-  </si>
-  <si>
-    <t>Mật khẩu tối thiểu 6 kí tự có chứ chữ hoa, chữ thường và kí tự số</t>
-  </si>
-  <si>
     <t>Đăng nhập thành công</t>
   </si>
   <si>
-    <t>Đăng nhập thất bại</t>
-  </si>
-  <si>
     <t>ERR_USERNAME_E001</t>
   </si>
   <si>
@@ -66,9 +51,6 @@
     <t>ERR_PASSWORD_E001</t>
   </si>
   <si>
-    <t>ERR_PASSWORD_E002</t>
-  </si>
-  <si>
     <t>MSG_LOGIN_SUCCESS</t>
   </si>
   <si>
@@ -84,13 +66,121 @@
     <t>ERR_QUAN_E002</t>
   </si>
   <si>
-    <t>Size không hợp lệ</t>
-  </si>
-  <si>
-    <t>Số lượng không hợp lệ</t>
-  </si>
-  <si>
-    <t>Tồn kho không đủ</t>
+    <t>MSG_COMMON_M001</t>
+  </si>
+  <si>
+    <t>MSG_COMMON_M002</t>
+  </si>
+  <si>
+    <t>MSG_COMMON_M003</t>
+  </si>
+  <si>
+    <t>ERR_SIZE_E002</t>
+  </si>
+  <si>
+    <t>MSG_PRODUCT_SUCCESS</t>
+  </si>
+  <si>
+    <t>ERR_SIZE_E003</t>
+  </si>
+  <si>
+    <t>ERR_IMG_E001</t>
+  </si>
+  <si>
+    <t>ERR_IMG_E002</t>
+  </si>
+  <si>
+    <t>ERR_PDNM_E001,</t>
+  </si>
+  <si>
+    <t>ERR_DES_E001</t>
+  </si>
+  <si>
+    <t>ERR_PRICE_E001</t>
+  </si>
+  <si>
+    <t>ERR_UNI_E001</t>
+  </si>
+  <si>
+    <t>ERR_COLOR_E001</t>
+  </si>
+  <si>
+    <t>ERR_CRTBY_E001</t>
+  </si>
+  <si>
+    <t>ERR_STATUS_E001</t>
+  </si>
+  <si>
+    <t>Bạn phải đăng nhập để thực hiện thao tác này</t>
+  </si>
+  <si>
+    <t>Đã thêm sản phẩm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>M003,Đã thêm sản phẩm vào yêu thích</t>
+  </si>
+  <si>
+    <t>Tên đăng nhập không được để trống</t>
+  </si>
+  <si>
+    <t>Tên đăng nhập phải đúng định dạng example@mail.com</t>
+  </si>
+  <si>
+    <t>Mật khẩu không được để trống</t>
+  </si>
+  <si>
+    <t>Kiểm tra lại email và password</t>
+  </si>
+  <si>
+    <t>Size phải từ 35 đến 45</t>
+  </si>
+  <si>
+    <t>Đã có sản phẩm cùng size trong giỏ hàng</t>
+  </si>
+  <si>
+    <t>Số lượng đã nhập không hợp lệ</t>
+  </si>
+  <si>
+    <t>Số lượng tồn kho không đủ</t>
+  </si>
+  <si>
+    <t>Tạo sản phẩm thành công</t>
+  </si>
+  <si>
+    <t>Chọn ít nhất 1 size</t>
+  </si>
+  <si>
+    <t>Tối đa 5 ảnh</t>
+  </si>
+  <si>
+    <t>Tối thiểu 1 ảnh</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm dài từ 5 đến 100 ký tự</t>
+  </si>
+  <si>
+    <t>Thêm mô tả sản phẩm! Từ 5 đến 500 ký tự</t>
+  </si>
+  <si>
+    <t>Giá sản phẩm không hợp lệ</t>
+  </si>
+  <si>
+    <t>Nhập thương hiệu sản phẩm</t>
+  </si>
+  <si>
+    <t>Chưa chọn màu</t>
+  </si>
+  <si>
+    <t>Người tạo không xác định</t>
+  </si>
+  <si>
+    <t>Trạng thái sản phẩm không xác định</t>
+  </si>
+  <si>
+    <t>MSG_PRODUCT_SUCCESS2</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa sản phẩm thành công</t>
   </si>
 </sst>
 </file>
@@ -131,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -155,34 +245,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -231,36 +295,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,18 +599,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.86328125" customWidth="1"/>
-    <col min="3" max="3" width="31.06640625" customWidth="1"/>
-    <col min="4" max="4" width="59.46484375" customWidth="1"/>
-    <col min="5" max="5" width="39.73046875" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="59.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -565,7 +618,7 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -577,172 +630,368 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="6"/>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="6"/>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="6"/>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="3">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="3">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="3">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="3">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="3">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="3">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="3">
+        <v>10</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="3">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="3">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="3">
+        <v>13</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="3">
+        <v>14</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="3">
+        <v>15</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="3">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="3">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="3">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="3">
+        <v>13</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="3">
+        <v>14</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="3">
+        <v>15</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="2:5" ht="14.25" customHeight="1">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="7"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
